--- a/docs/開發文件.xlsx
+++ b/docs/開發文件.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\skill-manager\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\SkillManager\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5529606-4A36-492C-B4D1-2955B8F7B464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD67F1-F4D5-4461-A214-B0C78B8A88F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{2AAA8547-FDAA-4995-91BD-324D86F97238}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="28800" windowHeight="15885" activeTab="2" xr2:uid="{2AAA8547-FDAA-4995-91BD-324D86F97238}"/>
   </bookViews>
   <sheets>
     <sheet name="職業架構" sheetId="2" r:id="rId1"/>
     <sheet name="元素" sheetId="3" r:id="rId2"/>
-    <sheet name="知識樹" sheetId="1" r:id="rId3"/>
+    <sheet name="效果狀態關係表" sheetId="4" r:id="rId3"/>
+    <sheet name="效果流程" sheetId="5" r:id="rId4"/>
+    <sheet name="知識樹" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,12 +60,236 @@
     <t>(-&gt; 相生)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>暈眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擊退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>互斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(0):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊狀態被移除</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>排斥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(1):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>無法加入新狀態</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>抵銷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(2):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兩者都被移除</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color rgb="FF7F848E"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>共存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(3):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兩種狀態無關</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>延遲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(4):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加入新狀態但暫停，待舊狀態結束後恢復</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>凍結</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Fira Code Retina"/>
+        <family val="3"/>
+      </rPr>
+      <t>(5):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>舊狀態暫停，待新狀態結束後恢復</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狀態定義（每種效果可擁有複數狀態）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +314,54 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color rgb="FF7F848E"/>
+      <name val="Fira Code Retina"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Fira Code Retina"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7F848E"/>
+      <name val="Fira Code Retina"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Fira Code Retina"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -103,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -146,13 +420,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,6 +518,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -393,8 +768,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5495925" y="2788920"/>
-          <a:ext cx="1114425" cy="1104900"/>
+          <a:off x="6181725" y="2838450"/>
+          <a:ext cx="1190625" cy="1123950"/>
           <a:chOff x="7696200" y="2095500"/>
           <a:chExt cx="1190625" cy="1123950"/>
         </a:xfrm>
@@ -542,8 +917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9067800" y="2621280"/>
-          <a:ext cx="1038225" cy="1282065"/>
+          <a:off x="10134600" y="2667000"/>
+          <a:ext cx="1190625" cy="1304925"/>
           <a:chOff x="7696200" y="2095500"/>
           <a:chExt cx="1190625" cy="1304925"/>
         </a:xfrm>
@@ -691,8 +1066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5486400" y="4716780"/>
-          <a:ext cx="1114425" cy="1091566"/>
+          <a:off x="6172200" y="4800600"/>
+          <a:ext cx="1190625" cy="1114426"/>
           <a:chOff x="7696200" y="2095500"/>
           <a:chExt cx="1190625" cy="1114426"/>
         </a:xfrm>
@@ -840,8 +1215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9058275" y="4741545"/>
-          <a:ext cx="1038225" cy="1272540"/>
+          <a:off x="10125075" y="4829175"/>
+          <a:ext cx="1190625" cy="1295400"/>
           <a:chOff x="7696200" y="2095500"/>
           <a:chExt cx="1190625" cy="1295400"/>
         </a:xfrm>
@@ -1373,6 +1748,595 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="橢圓 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE47C54C-69E6-4274-ACA6-25E57DBED48B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="390525"/>
+          <a:ext cx="1476375" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>新增效果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:latin typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6228F2FA-92E5-4CD0-9BC5-B98EC2DC93C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3162300" y="504825"/>
+          <a:ext cx="1895475" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>新增效果至效果管理器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="菱形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A4B828-27AB-4AB0-BCAA-A25DDF27BC7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="1714500"/>
+          <a:ext cx="1876425" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檢查有無此效果模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="橢圓 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72C624C-A969-4BC7-8981-71A813049631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5819775" y="1885950"/>
+          <a:ext cx="1476375" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:latin typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>結束</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100">
+            <a:latin typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Fira Code Retina" panose="020B0809050000020004" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="菱形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA736630-F3C7-4BD9-A8AD-3B696399F2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="3476625"/>
+          <a:ext cx="2152650" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檢查管理器有無此效果集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC89BBA-B9F3-4077-8A1A-802B4FA4E79E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="3571875"/>
+          <a:ext cx="1076325" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>搜尋模板</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F02DD2-A52E-4280-9BCA-BA126930597D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667375" y="4391025"/>
+          <a:ext cx="1076325" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>創建模板</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C92A61-8B46-4F01-956B-5F44C9E2BB57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="5248275"/>
+          <a:ext cx="1076325" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>加入至管理器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="菱形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82246F64-55AF-4F6E-9CCF-FCBBE4E22A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="6086475"/>
+          <a:ext cx="2152650" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>檢查管理器有無此效果集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -1397,8 +2361,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9755505" y="4817745"/>
-          <a:ext cx="1275420" cy="721995"/>
+          <a:off x="10906125" y="4905375"/>
+          <a:ext cx="1496400" cy="733425"/>
           <a:chOff x="10715625" y="3857625"/>
           <a:chExt cx="1191600" cy="942975"/>
         </a:xfrm>
@@ -1536,8 +2500,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11982450" y="4827270"/>
-          <a:ext cx="1039200" cy="927735"/>
+          <a:off x="13430250" y="4914900"/>
+          <a:ext cx="1191600" cy="942975"/>
           <a:chOff x="13544550" y="3962400"/>
           <a:chExt cx="1191600" cy="942975"/>
         </a:xfrm>
@@ -1672,8 +2636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7658100" y="3703320"/>
-          <a:ext cx="1039200" cy="927735"/>
+          <a:off x="8572500" y="3771900"/>
+          <a:ext cx="1191600" cy="942975"/>
           <a:chOff x="13544550" y="3962400"/>
           <a:chExt cx="1191600" cy="942975"/>
         </a:xfrm>
@@ -2080,11 +3044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A044D98-8E72-49E7-89EA-7D9B7E0AA4C2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,142 +3058,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759B5BEA-5308-4309-A819-3917CF18F279}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="H2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4"/>
+    <row r="2" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4"/>
+    <row r="3" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4"/>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="19" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+      <c r="O19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="S19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="Q23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="T24" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2239,6 +3209,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC514495-284E-4CBC-949C-9A132044A339}">
+  <dimension ref="N14:S29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="14" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="14:19" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="N17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N18" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="22" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BD8575-92E8-4E91-A2F8-7A47328076BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DF6FF3-993B-4EE5-B00F-288D13F1FB99}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2246,7 +3337,7 @@
       <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
